--- a/ClosedXML.Tests/Resource/Examples/Misc/DataTypes.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/DataTypes.xlsx
@@ -589,8 +589,8 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="26.444464" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="21.91826" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="26.323861" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="21.936327" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:3">

--- a/ClosedXML.Tests/Resource/Examples/Misc/DataTypes.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/DataTypes.xlsx
@@ -55,13 +55,13 @@
     <x:t>Date as Text:</x:t>
   </x:si>
   <x:si>
-    <x:t>9/2/2010 12:00:00 AM</x:t>
+    <x:t>09/02/2010 00:00:00</x:t>
   </x:si>
   <x:si>
     <x:t>DateTime as Text:</x:t>
   </x:si>
   <x:si>
-    <x:t>9/2/2010 1:45:22 PM</x:t>
+    <x:t>09/02/2010 13:45:22</x:t>
   </x:si>
   <x:si>
     <x:t>Boolean as Text:</x:t>
@@ -590,7 +590,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="26.323861" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="21.936327" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="20.598129" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:3">
